--- a/Päiväkirja_tvt_2022_kalsi.xlsx
+++ b/Päiväkirja_tvt_2022_kalsi.xlsx
@@ -514,7 +514,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="66">
   <si>
     <t xml:space="preserve">Työssäoppimisjakson päiväkirja</t>
   </si>
@@ -686,6 +686,12 @@
   </si>
   <si>
     <t xml:space="preserve">Taitotalo, palaveri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiedostoon talletus syötetyn levyn tiedot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiedoston lukeminen kerralla kaikki näytölle</t>
   </si>
   <si>
     <t xml:space="preserve">Pääsiäinen</t>
@@ -1397,9 +1403,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>67680</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>113040</xdr:rowOff>
+      <xdr:rowOff>112680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1413,7 +1419,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="520200" cy="484200"/>
+          <a:ext cx="519840" cy="483840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1435,11 +1441,11 @@
   </sheetPr>
   <dimension ref="A1:AA615"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z29" activeCellId="0" sqref="Z29"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M52" activeCellId="0" sqref="M52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="1.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="2" style="0" width="4.71"/>
@@ -2462,7 +2468,9 @@
         <v>19</v>
       </c>
       <c r="L33" s="33"/>
-      <c r="M33" s="34"/>
+      <c r="M33" s="34" t="s">
+        <v>42</v>
+      </c>
       <c r="N33" s="34"/>
       <c r="O33" s="34"/>
       <c r="P33" s="34"/>
@@ -2502,7 +2510,9 @@
         <v>19</v>
       </c>
       <c r="L34" s="33"/>
-      <c r="M34" s="34"/>
+      <c r="M34" s="34" t="s">
+        <v>43</v>
+      </c>
       <c r="N34" s="34"/>
       <c r="O34" s="34"/>
       <c r="P34" s="34"/>
@@ -2534,7 +2544,7 @@
       <c r="K35" s="33"/>
       <c r="L35" s="33"/>
       <c r="M35" s="34" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N35" s="34"/>
       <c r="O35" s="34"/>
@@ -2810,7 +2820,7 @@
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="64"/>
       <c r="B45" s="65" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C45" s="65"/>
       <c r="D45" s="65"/>
@@ -2825,7 +2835,7 @@
       <c r="K45" s="66"/>
       <c r="L45" s="66"/>
       <c r="M45" s="65" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N45" s="65"/>
       <c r="O45" s="65"/>
@@ -2902,7 +2912,7 @@
     <row r="48" s="24" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="19"/>
       <c r="B48" s="20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C48" s="20"/>
       <c r="D48" s="20"/>
@@ -2988,7 +2998,7 @@
       <c r="K50" s="33"/>
       <c r="L50" s="33"/>
       <c r="M50" s="34" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N50" s="34"/>
       <c r="O50" s="34"/>
@@ -3029,7 +3039,9 @@
         <v>21</v>
       </c>
       <c r="L51" s="33"/>
-      <c r="M51" s="34"/>
+      <c r="M51" s="34" t="s">
+        <v>41</v>
+      </c>
       <c r="N51" s="34"/>
       <c r="O51" s="34"/>
       <c r="P51" s="34"/>
@@ -3421,7 +3433,7 @@
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="64"/>
       <c r="B64" s="65" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C64" s="65"/>
       <c r="D64" s="65"/>
@@ -3434,7 +3446,7 @@
       <c r="K64" s="66"/>
       <c r="L64" s="66"/>
       <c r="M64" s="65" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N64" s="65"/>
       <c r="O64" s="65"/>
@@ -3509,7 +3521,7 @@
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="19"/>
       <c r="B67" s="20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C67" s="20"/>
       <c r="D67" s="20"/>
@@ -4032,7 +4044,7 @@
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="64"/>
       <c r="B83" s="65" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C83" s="65"/>
       <c r="D83" s="65"/>
@@ -4047,7 +4059,7 @@
       <c r="K83" s="66"/>
       <c r="L83" s="66"/>
       <c r="M83" s="65" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N83" s="65"/>
       <c r="O83" s="65"/>
@@ -4124,7 +4136,7 @@
     <row r="86" s="24" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="19"/>
       <c r="B86" s="20" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C86" s="20"/>
       <c r="D86" s="20"/>
@@ -4256,7 +4268,7 @@
       </c>
       <c r="L89" s="33"/>
       <c r="M89" s="34" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N89" s="34"/>
       <c r="O89" s="34"/>
@@ -4649,7 +4661,7 @@
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="64"/>
       <c r="B102" s="65" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C102" s="65"/>
       <c r="D102" s="65"/>
@@ -4664,7 +4676,7 @@
       <c r="K102" s="66"/>
       <c r="L102" s="66"/>
       <c r="M102" s="65" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N102" s="65"/>
       <c r="O102" s="65"/>
@@ -4741,7 +4753,7 @@
     <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="19"/>
       <c r="B105" s="20" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C105" s="20"/>
       <c r="D105" s="20"/>
@@ -5254,7 +5266,7 @@
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="64"/>
       <c r="B121" s="65" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C121" s="65"/>
       <c r="D121" s="65"/>
@@ -5269,7 +5281,7 @@
       <c r="K121" s="66"/>
       <c r="L121" s="66"/>
       <c r="M121" s="65" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N121" s="65"/>
       <c r="O121" s="65"/>
@@ -5346,7 +5358,7 @@
     <row r="124" s="24" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="19"/>
       <c r="B124" s="20" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C124" s="20"/>
       <c r="D124" s="20"/>
@@ -5859,7 +5871,7 @@
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="64"/>
       <c r="B140" s="65" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C140" s="65"/>
       <c r="D140" s="65"/>
@@ -5874,7 +5886,7 @@
       <c r="K140" s="66"/>
       <c r="L140" s="66"/>
       <c r="M140" s="65" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N140" s="65"/>
       <c r="O140" s="65"/>
@@ -5951,7 +5963,7 @@
     <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="19"/>
       <c r="B143" s="20" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C143" s="20"/>
       <c r="D143" s="20"/>
@@ -6153,7 +6165,7 @@
       </c>
       <c r="L148" s="33"/>
       <c r="M148" s="34" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N148" s="34"/>
       <c r="O148" s="34"/>
@@ -6464,7 +6476,7 @@
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="64"/>
       <c r="B159" s="65" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C159" s="65"/>
       <c r="D159" s="65"/>
@@ -6479,7 +6491,7 @@
       <c r="K159" s="66"/>
       <c r="L159" s="66"/>
       <c r="M159" s="65" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N159" s="65"/>
       <c r="O159" s="65"/>
@@ -6556,7 +6568,7 @@
     <row r="162" s="24" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="19"/>
       <c r="B162" s="20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C162" s="20"/>
       <c r="D162" s="20"/>
@@ -7069,7 +7081,7 @@
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="64"/>
       <c r="B178" s="65" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C178" s="65"/>
       <c r="D178" s="65"/>
@@ -7084,7 +7096,7 @@
       <c r="K178" s="66"/>
       <c r="L178" s="66"/>
       <c r="M178" s="65" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N178" s="65"/>
       <c r="O178" s="65"/>
@@ -7161,7 +7173,7 @@
     <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="19"/>
       <c r="B181" s="20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C181" s="20"/>
       <c r="D181" s="20"/>
@@ -7674,7 +7686,7 @@
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="64"/>
       <c r="B197" s="65" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C197" s="65"/>
       <c r="D197" s="65"/>
@@ -7687,7 +7699,7 @@
       <c r="K197" s="66"/>
       <c r="L197" s="66"/>
       <c r="M197" s="65" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N197" s="65"/>
       <c r="O197" s="65"/>
@@ -7760,7 +7772,7 @@
     <row r="200" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="19"/>
       <c r="B200" s="20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C200" s="20"/>
       <c r="D200" s="20"/>
@@ -8271,7 +8283,7 @@
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A216" s="64"/>
       <c r="B216" s="65" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C216" s="65"/>
       <c r="D216" s="65"/>
@@ -8284,7 +8296,7 @@
       <c r="K216" s="66"/>
       <c r="L216" s="66"/>
       <c r="M216" s="65" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N216" s="65"/>
       <c r="O216" s="65"/>
@@ -8357,7 +8369,7 @@
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="19"/>
       <c r="B219" s="20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C219" s="20"/>
       <c r="D219" s="20"/>
@@ -8848,7 +8860,7 @@
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A235" s="64"/>
       <c r="B235" s="65" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C235" s="65"/>
       <c r="D235" s="65"/>
@@ -8861,7 +8873,7 @@
       <c r="K235" s="66"/>
       <c r="L235" s="66"/>
       <c r="M235" s="65" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N235" s="65"/>
       <c r="O235" s="65"/>
@@ -8934,7 +8946,7 @@
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="19"/>
       <c r="B238" s="20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C238" s="20"/>
       <c r="D238" s="20"/>
@@ -9425,7 +9437,7 @@
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A254" s="64"/>
       <c r="B254" s="65" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C254" s="65"/>
       <c r="D254" s="65"/>
@@ -9438,7 +9450,7 @@
       <c r="K254" s="66"/>
       <c r="L254" s="66"/>
       <c r="M254" s="65" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N254" s="65"/>
       <c r="O254" s="65"/>
@@ -9511,7 +9523,7 @@
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="19"/>
       <c r="B257" s="20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C257" s="20"/>
       <c r="D257" s="20"/>
@@ -10002,7 +10014,7 @@
     <row r="273" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A273" s="64"/>
       <c r="B273" s="65" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C273" s="65"/>
       <c r="D273" s="65"/>
@@ -10015,7 +10027,7 @@
       <c r="K273" s="66"/>
       <c r="L273" s="66"/>
       <c r="M273" s="65" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N273" s="65"/>
       <c r="O273" s="65"/>
@@ -10088,7 +10100,7 @@
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="19"/>
       <c r="B276" s="20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C276" s="20"/>
       <c r="D276" s="20"/>
@@ -10579,7 +10591,7 @@
     <row r="292" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A292" s="64"/>
       <c r="B292" s="65" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C292" s="65"/>
       <c r="D292" s="65"/>
@@ -10592,7 +10604,7 @@
       <c r="K292" s="66"/>
       <c r="L292" s="66"/>
       <c r="M292" s="65" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N292" s="65"/>
       <c r="O292" s="65"/>
@@ -10665,7 +10677,7 @@
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="19"/>
       <c r="B295" s="20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C295" s="20"/>
       <c r="D295" s="20"/>
@@ -11156,7 +11168,7 @@
     <row r="311" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A311" s="64"/>
       <c r="B311" s="65" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C311" s="65"/>
       <c r="D311" s="65"/>
@@ -11169,7 +11181,7 @@
       <c r="K311" s="66"/>
       <c r="L311" s="66"/>
       <c r="M311" s="65" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N311" s="65"/>
       <c r="O311" s="65"/>
@@ -11242,7 +11254,7 @@
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="19"/>
       <c r="B314" s="20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C314" s="20"/>
       <c r="D314" s="20"/>
@@ -11733,7 +11745,7 @@
     <row r="330" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A330" s="64"/>
       <c r="B330" s="65" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C330" s="65"/>
       <c r="D330" s="65"/>
@@ -11746,7 +11758,7 @@
       <c r="K330" s="66"/>
       <c r="L330" s="66"/>
       <c r="M330" s="65" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N330" s="65"/>
       <c r="O330" s="65"/>
@@ -11819,7 +11831,7 @@
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="19"/>
       <c r="B333" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C333" s="20"/>
       <c r="D333" s="20"/>
@@ -12310,7 +12322,7 @@
     <row r="349" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A349" s="64"/>
       <c r="B349" s="65" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C349" s="65"/>
       <c r="D349" s="65"/>
@@ -12323,7 +12335,7 @@
       <c r="K349" s="66"/>
       <c r="L349" s="66"/>
       <c r="M349" s="65" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N349" s="65"/>
       <c r="O349" s="65"/>
@@ -12396,7 +12408,7 @@
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="19"/>
       <c r="B352" s="20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C352" s="20"/>
       <c r="D352" s="20"/>
@@ -12887,7 +12899,7 @@
     <row r="368" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A368" s="64"/>
       <c r="B368" s="65" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C368" s="65"/>
       <c r="D368" s="65"/>
@@ -12900,7 +12912,7 @@
       <c r="K368" s="66"/>
       <c r="L368" s="66"/>
       <c r="M368" s="65" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N368" s="65"/>
       <c r="O368" s="65"/>
@@ -12973,7 +12985,7 @@
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="19"/>
       <c r="B371" s="20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C371" s="20"/>
       <c r="D371" s="20"/>
@@ -13464,7 +13476,7 @@
     <row r="387" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A387" s="64"/>
       <c r="B387" s="65" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C387" s="65"/>
       <c r="D387" s="65"/>
@@ -13477,7 +13489,7 @@
       <c r="K387" s="66"/>
       <c r="L387" s="66"/>
       <c r="M387" s="65" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N387" s="65"/>
       <c r="O387" s="65"/>

--- a/Päiväkirja_tvt_2022_kalsi.xlsx
+++ b/Päiväkirja_tvt_2022_kalsi.xlsx
@@ -514,7 +514,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="74">
   <si>
     <t xml:space="preserve">Työssäoppimisjakson päiväkirja</t>
   </si>
@@ -697,13 +697,31 @@
     <t xml:space="preserve">Pääsiäinen</t>
   </si>
   <si>
-    <t xml:space="preserve">x.x.2022</t>
+    <t xml:space="preserve">19.4.2022</t>
   </si>
   <si>
     <t xml:space="preserve">3. työviikko</t>
   </si>
   <si>
+    <t xml:space="preserve">Oliolistan (Levy luokka) toteutus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For silmukka oliolla (Levy olio)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For silmukka löytyykö Haettu merkkijono Artistin nimestä tai Levyn nimestä</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.4.2022</t>
+  </si>
+  <si>
     <t xml:space="preserve">4. työviikko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hakutulokset Olio listaan, listan tietojen purkaminen merkkijonoksi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5.2022</t>
   </si>
   <si>
     <t xml:space="preserve">5. työviikko</t>
@@ -712,7 +730,13 @@
     <t xml:space="preserve">Taitotalo, projektinäyttö</t>
   </si>
   <si>
+    <t xml:space="preserve">x.5.2022</t>
+  </si>
+  <si>
     <t xml:space="preserve">6. työviikko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x.x.2022</t>
   </si>
   <si>
     <t xml:space="preserve">7. työviikko</t>
@@ -1403,9 +1427,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
+      <xdr:colOff>66960</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>112680</xdr:rowOff>
+      <xdr:rowOff>112320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1419,7 +1443,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="519840" cy="483840"/>
+          <a:ext cx="519480" cy="483480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1441,11 +1465,11 @@
   </sheetPr>
   <dimension ref="A1:AA615"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M52" activeCellId="0" sqref="M52"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M89" activeCellId="0" sqref="M89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="1.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="2" style="0" width="4.71"/>
@@ -3081,7 +3105,9 @@
         <v>19</v>
       </c>
       <c r="L52" s="33"/>
-      <c r="M52" s="34"/>
+      <c r="M52" s="34" t="s">
+        <v>47</v>
+      </c>
       <c r="N52" s="34"/>
       <c r="O52" s="34"/>
       <c r="P52" s="34"/>
@@ -3121,7 +3147,9 @@
         <v>19</v>
       </c>
       <c r="L53" s="33"/>
-      <c r="M53" s="34"/>
+      <c r="M53" s="34" t="s">
+        <v>48</v>
+      </c>
       <c r="N53" s="34"/>
       <c r="O53" s="34"/>
       <c r="P53" s="34"/>
@@ -3158,7 +3186,9 @@
         <v>19</v>
       </c>
       <c r="L54" s="33"/>
-      <c r="M54" s="34"/>
+      <c r="M54" s="34" t="s">
+        <v>49</v>
+      </c>
       <c r="N54" s="34"/>
       <c r="O54" s="34"/>
       <c r="P54" s="34"/>
@@ -3433,7 +3463,7 @@
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="64"/>
       <c r="B64" s="65" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C64" s="65"/>
       <c r="D64" s="65"/>
@@ -3446,7 +3476,7 @@
       <c r="K64" s="66"/>
       <c r="L64" s="66"/>
       <c r="M64" s="65" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N64" s="65"/>
       <c r="O64" s="65"/>
@@ -3521,7 +3551,7 @@
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="19"/>
       <c r="B67" s="20" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C67" s="20"/>
       <c r="D67" s="20"/>
@@ -3612,7 +3642,9 @@
         <v>19</v>
       </c>
       <c r="L69" s="33"/>
-      <c r="M69" s="34"/>
+      <c r="M69" s="34" t="s">
+        <v>52</v>
+      </c>
       <c r="N69" s="34"/>
       <c r="O69" s="34"/>
       <c r="P69" s="34"/>
@@ -3652,7 +3684,9 @@
         <v>21</v>
       </c>
       <c r="L70" s="33"/>
-      <c r="M70" s="34"/>
+      <c r="M70" s="34" t="s">
+        <v>41</v>
+      </c>
       <c r="N70" s="34"/>
       <c r="O70" s="34"/>
       <c r="P70" s="34"/>
@@ -4044,7 +4078,7 @@
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="64"/>
       <c r="B83" s="65" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C83" s="65"/>
       <c r="D83" s="65"/>
@@ -4059,7 +4093,7 @@
       <c r="K83" s="66"/>
       <c r="L83" s="66"/>
       <c r="M83" s="65" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="N83" s="65"/>
       <c r="O83" s="65"/>
@@ -4136,7 +4170,7 @@
     <row r="86" s="24" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="19"/>
       <c r="B86" s="20" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C86" s="20"/>
       <c r="D86" s="20"/>
@@ -4268,7 +4302,7 @@
       </c>
       <c r="L89" s="33"/>
       <c r="M89" s="34" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="N89" s="34"/>
       <c r="O89" s="34"/>
@@ -4661,7 +4695,7 @@
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="64"/>
       <c r="B102" s="65" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C102" s="65"/>
       <c r="D102" s="65"/>
@@ -4676,7 +4710,7 @@
       <c r="K102" s="66"/>
       <c r="L102" s="66"/>
       <c r="M102" s="65" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="N102" s="65"/>
       <c r="O102" s="65"/>
@@ -4753,7 +4787,7 @@
     <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="19"/>
       <c r="B105" s="20" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C105" s="20"/>
       <c r="D105" s="20"/>
@@ -4839,10 +4873,12 @@
       <c r="I107" s="32"/>
       <c r="J107" s="32"/>
       <c r="K107" s="33" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L107" s="33"/>
-      <c r="M107" s="34"/>
+      <c r="M107" s="34" t="s">
+        <v>41</v>
+      </c>
       <c r="N107" s="34"/>
       <c r="O107" s="34"/>
       <c r="P107" s="34"/>
@@ -4877,7 +4913,7 @@
       <c r="I108" s="32"/>
       <c r="J108" s="32"/>
       <c r="K108" s="33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L108" s="33"/>
       <c r="M108" s="34"/>
@@ -5266,7 +5302,7 @@
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="64"/>
       <c r="B121" s="65" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C121" s="65"/>
       <c r="D121" s="65"/>
@@ -5281,7 +5317,7 @@
       <c r="K121" s="66"/>
       <c r="L121" s="66"/>
       <c r="M121" s="65" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="N121" s="65"/>
       <c r="O121" s="65"/>
@@ -5358,7 +5394,7 @@
     <row r="124" s="24" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="19"/>
       <c r="B124" s="20" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C124" s="20"/>
       <c r="D124" s="20"/>
@@ -5444,10 +5480,12 @@
       <c r="I126" s="32"/>
       <c r="J126" s="32"/>
       <c r="K126" s="33" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L126" s="33"/>
-      <c r="M126" s="34"/>
+      <c r="M126" s="34" t="s">
+        <v>41</v>
+      </c>
       <c r="N126" s="34"/>
       <c r="O126" s="34"/>
       <c r="P126" s="34"/>
@@ -5482,7 +5520,7 @@
       <c r="I127" s="32"/>
       <c r="J127" s="32"/>
       <c r="K127" s="33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L127" s="33"/>
       <c r="M127" s="34"/>
@@ -5871,7 +5909,7 @@
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="64"/>
       <c r="B140" s="65" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C140" s="65"/>
       <c r="D140" s="65"/>
@@ -5886,7 +5924,7 @@
       <c r="K140" s="66"/>
       <c r="L140" s="66"/>
       <c r="M140" s="65" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="N140" s="65"/>
       <c r="O140" s="65"/>
@@ -5963,7 +6001,7 @@
     <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="19"/>
       <c r="B143" s="20" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C143" s="20"/>
       <c r="D143" s="20"/>
@@ -6049,10 +6087,12 @@
       <c r="I145" s="32"/>
       <c r="J145" s="32"/>
       <c r="K145" s="33" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L145" s="33"/>
-      <c r="M145" s="34"/>
+      <c r="M145" s="34" t="s">
+        <v>41</v>
+      </c>
       <c r="N145" s="34"/>
       <c r="O145" s="34"/>
       <c r="P145" s="34"/>
@@ -6087,7 +6127,7 @@
       <c r="I146" s="32"/>
       <c r="J146" s="32"/>
       <c r="K146" s="33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L146" s="33"/>
       <c r="M146" s="34"/>
@@ -6165,7 +6205,7 @@
       </c>
       <c r="L148" s="33"/>
       <c r="M148" s="34" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="N148" s="34"/>
       <c r="O148" s="34"/>
@@ -6476,7 +6516,7 @@
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="64"/>
       <c r="B159" s="65" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C159" s="65"/>
       <c r="D159" s="65"/>
@@ -6491,7 +6531,7 @@
       <c r="K159" s="66"/>
       <c r="L159" s="66"/>
       <c r="M159" s="65" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="N159" s="65"/>
       <c r="O159" s="65"/>
@@ -6568,7 +6608,7 @@
     <row r="162" s="24" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="19"/>
       <c r="B162" s="20" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C162" s="20"/>
       <c r="D162" s="20"/>
@@ -6654,10 +6694,12 @@
       <c r="I164" s="32"/>
       <c r="J164" s="32"/>
       <c r="K164" s="33" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L164" s="33"/>
-      <c r="M164" s="34"/>
+      <c r="M164" s="34" t="s">
+        <v>41</v>
+      </c>
       <c r="N164" s="34"/>
       <c r="O164" s="34"/>
       <c r="P164" s="34"/>
@@ -6692,7 +6734,7 @@
       <c r="I165" s="32"/>
       <c r="J165" s="32"/>
       <c r="K165" s="33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L165" s="33"/>
       <c r="M165" s="34"/>
@@ -7081,7 +7123,7 @@
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="64"/>
       <c r="B178" s="65" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C178" s="65"/>
       <c r="D178" s="65"/>
@@ -7096,7 +7138,7 @@
       <c r="K178" s="66"/>
       <c r="L178" s="66"/>
       <c r="M178" s="65" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="N178" s="65"/>
       <c r="O178" s="65"/>
@@ -7173,7 +7215,7 @@
     <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="19"/>
       <c r="B181" s="20" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C181" s="20"/>
       <c r="D181" s="20"/>
@@ -7686,7 +7728,7 @@
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="64"/>
       <c r="B197" s="65" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C197" s="65"/>
       <c r="D197" s="65"/>
@@ -7699,7 +7741,7 @@
       <c r="K197" s="66"/>
       <c r="L197" s="66"/>
       <c r="M197" s="65" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="N197" s="65"/>
       <c r="O197" s="65"/>
@@ -7772,7 +7814,7 @@
     <row r="200" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="19"/>
       <c r="B200" s="20" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C200" s="20"/>
       <c r="D200" s="20"/>
@@ -8283,7 +8325,7 @@
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A216" s="64"/>
       <c r="B216" s="65" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C216" s="65"/>
       <c r="D216" s="65"/>
@@ -8296,7 +8338,7 @@
       <c r="K216" s="66"/>
       <c r="L216" s="66"/>
       <c r="M216" s="65" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="N216" s="65"/>
       <c r="O216" s="65"/>
@@ -8369,7 +8411,7 @@
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="19"/>
       <c r="B219" s="20" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C219" s="20"/>
       <c r="D219" s="20"/>
@@ -8860,7 +8902,7 @@
     <row r="235" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A235" s="64"/>
       <c r="B235" s="65" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C235" s="65"/>
       <c r="D235" s="65"/>
@@ -8873,7 +8915,7 @@
       <c r="K235" s="66"/>
       <c r="L235" s="66"/>
       <c r="M235" s="65" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="N235" s="65"/>
       <c r="O235" s="65"/>
@@ -8946,7 +8988,7 @@
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="19"/>
       <c r="B238" s="20" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C238" s="20"/>
       <c r="D238" s="20"/>
@@ -9437,7 +9479,7 @@
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A254" s="64"/>
       <c r="B254" s="65" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C254" s="65"/>
       <c r="D254" s="65"/>
@@ -9450,7 +9492,7 @@
       <c r="K254" s="66"/>
       <c r="L254" s="66"/>
       <c r="M254" s="65" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="N254" s="65"/>
       <c r="O254" s="65"/>
@@ -9523,7 +9565,7 @@
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="19"/>
       <c r="B257" s="20" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C257" s="20"/>
       <c r="D257" s="20"/>
@@ -10014,7 +10056,7 @@
     <row r="273" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A273" s="64"/>
       <c r="B273" s="65" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C273" s="65"/>
       <c r="D273" s="65"/>
@@ -10027,7 +10069,7 @@
       <c r="K273" s="66"/>
       <c r="L273" s="66"/>
       <c r="M273" s="65" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="N273" s="65"/>
       <c r="O273" s="65"/>
@@ -10100,7 +10142,7 @@
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="19"/>
       <c r="B276" s="20" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C276" s="20"/>
       <c r="D276" s="20"/>
@@ -10591,7 +10633,7 @@
     <row r="292" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A292" s="64"/>
       <c r="B292" s="65" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C292" s="65"/>
       <c r="D292" s="65"/>
@@ -10604,7 +10646,7 @@
       <c r="K292" s="66"/>
       <c r="L292" s="66"/>
       <c r="M292" s="65" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="N292" s="65"/>
       <c r="O292" s="65"/>
@@ -10677,7 +10719,7 @@
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="19"/>
       <c r="B295" s="20" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C295" s="20"/>
       <c r="D295" s="20"/>
@@ -11168,7 +11210,7 @@
     <row r="311" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A311" s="64"/>
       <c r="B311" s="65" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C311" s="65"/>
       <c r="D311" s="65"/>
@@ -11181,7 +11223,7 @@
       <c r="K311" s="66"/>
       <c r="L311" s="66"/>
       <c r="M311" s="65" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="N311" s="65"/>
       <c r="O311" s="65"/>
@@ -11254,7 +11296,7 @@
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="19"/>
       <c r="B314" s="20" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C314" s="20"/>
       <c r="D314" s="20"/>
@@ -11745,7 +11787,7 @@
     <row r="330" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A330" s="64"/>
       <c r="B330" s="65" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C330" s="65"/>
       <c r="D330" s="65"/>
@@ -11758,7 +11800,7 @@
       <c r="K330" s="66"/>
       <c r="L330" s="66"/>
       <c r="M330" s="65" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="N330" s="65"/>
       <c r="O330" s="65"/>
@@ -11831,7 +11873,7 @@
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="19"/>
       <c r="B333" s="20" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C333" s="20"/>
       <c r="D333" s="20"/>
@@ -12322,7 +12364,7 @@
     <row r="349" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A349" s="64"/>
       <c r="B349" s="65" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C349" s="65"/>
       <c r="D349" s="65"/>
@@ -12335,7 +12377,7 @@
       <c r="K349" s="66"/>
       <c r="L349" s="66"/>
       <c r="M349" s="65" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="N349" s="65"/>
       <c r="O349" s="65"/>
@@ -12408,7 +12450,7 @@
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="19"/>
       <c r="B352" s="20" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C352" s="20"/>
       <c r="D352" s="20"/>
@@ -12899,7 +12941,7 @@
     <row r="368" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A368" s="64"/>
       <c r="B368" s="65" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C368" s="65"/>
       <c r="D368" s="65"/>
@@ -12912,7 +12954,7 @@
       <c r="K368" s="66"/>
       <c r="L368" s="66"/>
       <c r="M368" s="65" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="N368" s="65"/>
       <c r="O368" s="65"/>
@@ -12985,7 +13027,7 @@
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="19"/>
       <c r="B371" s="20" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C371" s="20"/>
       <c r="D371" s="20"/>
@@ -13476,7 +13518,7 @@
     <row r="387" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A387" s="64"/>
       <c r="B387" s="65" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="C387" s="65"/>
       <c r="D387" s="65"/>
@@ -13489,7 +13531,7 @@
       <c r="K387" s="66"/>
       <c r="L387" s="66"/>
       <c r="M387" s="65" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="N387" s="65"/>
       <c r="O387" s="65"/>
